--- a/classfiers/mega/svm/smote/mega-svm-default-smote-results.xlsx
+++ b/classfiers/mega/svm/smote/mega-svm-default-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5506756756756757</v>
+        <v>0.8149779735682819</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8810810810810811</v>
+        <v>0.9946236559139785</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6777546777546777</v>
+        <v>0.8958837772397095</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6127684441197955</v>
+        <v>0.9975141634871083</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8956043956043956</v>
+        <v>0.9945945945945946</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8810810810810811</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="D3" t="n">
-        <v>0.888283378746594</v>
+        <v>0.9919137466307278</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9763915266617968</v>
+        <v>0.9997398543184183</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9212121212121213</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8216216216216217</v>
+        <v>0.9946236559139785</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8685714285714285</v>
+        <v>0.9973045822102425</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9807158509861211</v>
+        <v>0.9997976644698809</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9771428571428571</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9243243243243243</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9893644996347698</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9931034482758621</v>
+        <v>0.9945652173913043</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7783783783783784</v>
+        <v>0.9891891891891892</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8727272727272727</v>
+        <v>0.9918699186991871</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9967859751643535</v>
+        <v>0.9998837547224645</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8675476995821825</v>
+        <v>0.9608275571108361</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8572972972972973</v>
+        <v>0.9935367625690207</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8514673515599946</v>
+        <v>0.9753944049559733</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9112052593133674</v>
+        <v>0.9993870873995745</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/mega/svm/smote/mega-svm-default-smote-results.xlsx
+++ b/classfiers/mega/svm/smote/mega-svm-default-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8149779735682819</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9946236559139785</v>
+        <v>0.9940828402366864</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8958837772397095</v>
+        <v>0.8115942028985508</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9975141634871083</v>
+        <v>0.9951682364062883</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9945945945945946</v>
+        <v>0.9940476190476191</v>
       </c>
       <c r="C3" t="n">
-        <v>0.989247311827957</v>
+        <v>0.9881656804733728</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9919137466307278</v>
+        <v>0.9910979228486648</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997398543184183</v>
+        <v>0.9995448338643605</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9946236559139785</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9973045822102425</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997976644698809</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9945652173913043</v>
+        <v>0.9940828402366864</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9891891891891892</v>
+        <v>0.9940828402366864</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9918699186991871</v>
+        <v>0.9940828402366864</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998837547224645</v>
+        <v>0.9998599488813417</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9608275571108361</v>
+        <v>0.9347689489997182</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9935367625690207</v>
+        <v>0.995266272189349</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9753944049559733</v>
+        <v>0.9593549931967804</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9993870873995745</v>
+        <v>0.998914603830398</v>
       </c>
     </row>
   </sheetData>
